--- a/ARD_Testate_Extra_Input.xlsx
+++ b/ARD_Testate_Extra_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minda\Desktop\WORK_2020\PYTHON_EXP\PLOTTER\UP_TO_DATE_FILES_REQUIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minda\Desktop\WORK_2020\PYTHON_EXP\PLOTTER\UP_TO_DATE_FILES_REQUIRED\SUBMISSION_FILES\ARDKILL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD21C7F6-842F-4823-9229-EAA347798DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3B8A1-445A-4F1A-A4E6-028F2317D982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARD_Testate_Extra_Input" sheetId="1" r:id="rId1"/>
@@ -142,13 +142,13 @@
     <t>Exaggeration line style - Ex style Graphs 3,4</t>
   </si>
   <si>
-    <t>Percentage plot 1</t>
-  </si>
-  <si>
-    <t>Percentage plot 2</t>
-  </si>
-  <si>
     <t>DATA</t>
+  </si>
+  <si>
+    <t>Stack plot 1</t>
+  </si>
+  <si>
+    <t>Stack plot 2</t>
   </si>
 </sst>
 </file>
@@ -1005,19 +1005,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1644,9 +1644,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -1661,9 +1661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1678,9 +1678,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -1695,9 +1695,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>4</v>
@@ -1712,9 +1712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>8</v>
@@ -1729,9 +1729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
         <v>12</v>
@@ -1746,9 +1746,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
         <v>16</v>
@@ -1763,9 +1763,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1">
         <v>20</v>
@@ -1780,9 +1780,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1">
         <v>24</v>
@@ -1797,9 +1797,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1">
         <v>28</v>
@@ -1814,9 +1814,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1">
         <v>32</v>
@@ -1831,9 +1831,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1">
         <v>36</v>
@@ -1848,9 +1848,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1">
         <v>40</v>
@@ -1865,9 +1865,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51" s="1">
         <v>44</v>
@@ -1882,9 +1882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B52" s="1">
         <v>48</v>
@@ -1899,9 +1899,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1">
         <v>52</v>
@@ -1916,9 +1916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1">
         <v>56</v>
@@ -1933,9 +1933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B55" s="1">
         <v>60</v>
@@ -1950,9 +1950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B56" s="1">
         <v>64</v>
@@ -1967,9 +1967,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B57" s="1">
         <v>68</v>
@@ -1984,9 +1984,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B58" s="1">
         <v>72</v>
@@ -2001,9 +2001,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B59" s="1">
         <v>76</v>
@@ -2018,9 +2018,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1">
         <v>80</v>
@@ -2035,9 +2035,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1">
         <v>84</v>
@@ -2052,9 +2052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B62" s="1">
         <v>88</v>
@@ -2069,9 +2069,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B63" s="1">
         <v>92</v>
@@ -2086,9 +2086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B64" s="1">
         <v>96</v>
@@ -2103,9 +2103,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B65" s="1">
         <v>100</v>
@@ -2120,9 +2120,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="1">
         <v>104</v>
@@ -2137,9 +2137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B67" s="1">
         <v>108</v>
@@ -2154,9 +2154,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B68" s="1">
         <v>112</v>
@@ -2171,9 +2171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B69" s="1">
         <v>116</v>
@@ -2188,9 +2188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B70" s="1">
         <v>120</v>
@@ -2205,9 +2205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B71" s="1">
         <v>124</v>
@@ -2222,9 +2222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B72" s="1">
         <v>128</v>
@@ -2239,9 +2239,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B73" s="1">
         <v>132</v>
@@ -2256,9 +2256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B74" s="1">
         <v>136</v>
@@ -2273,9 +2273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B75" s="1">
         <v>140</v>
@@ -2290,9 +2290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1">
         <v>144</v>
@@ -2307,9 +2307,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B77" s="1">
         <v>148</v>
@@ -2324,9 +2324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B78" s="1">
         <v>152</v>
@@ -2341,9 +2341,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B79" s="1">
         <v>156</v>
@@ -2358,9 +2358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B80" s="1">
         <v>160</v>
@@ -2375,9 +2375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B81" s="1">
         <v>164</v>
@@ -2392,9 +2392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B82" s="1">
         <v>168</v>
@@ -2409,9 +2409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B83" s="1">
         <v>172</v>
@@ -2426,9 +2426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B84" s="1">
         <v>176</v>
@@ -2443,9 +2443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B85" s="1">
         <v>180</v>
@@ -2460,9 +2460,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B86" s="1">
         <v>184</v>
@@ -2477,9 +2477,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B87" s="1">
         <v>188</v>
@@ -2494,9 +2494,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B88" s="1">
         <v>192</v>
@@ -2511,9 +2511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B89" s="1">
         <v>196</v>
@@ -2528,9 +2528,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B90" s="1">
         <v>200</v>
@@ -2545,9 +2545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B91" s="1">
         <v>204</v>
@@ -2562,9 +2562,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B92" s="1">
         <v>208</v>
@@ -2579,9 +2579,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B93" s="1">
         <v>212</v>
@@ -2596,9 +2596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B94" s="1">
         <v>216</v>
@@ -2613,9 +2613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B95" s="1">
         <v>220</v>
@@ -2630,9 +2630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B96" s="1">
         <v>224</v>
@@ -2647,9 +2647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B97" s="1">
         <v>228</v>
@@ -2664,9 +2664,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B98" s="1">
         <v>232</v>
@@ -2681,9 +2681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B99" s="1">
         <v>236</v>
@@ -2698,9 +2698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B100" s="1">
         <v>240</v>
@@ -2715,9 +2715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B101" s="1">
         <v>244</v>
@@ -2732,9 +2732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B102" s="1">
         <v>248</v>
@@ -2749,9 +2749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B103" s="1">
         <v>252</v>
@@ -2766,9 +2766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B104" s="1">
         <v>256</v>
